--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2507989.17918028</v>
+        <v>2505654.067978299</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>162.1265216662863</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>115.7664925502709</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>176.0547351007203</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5377921948954</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>186.9553186323619</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>95.0519519343747</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.9578218484143</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>288.2822493900566</v>
+        <v>120.7307820829407</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>163.2704070622395</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318032</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>95.12712756824217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>20.43112068613203</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.134398099142</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1412.134398099142</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4109910936372</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.6966947956497</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1416.9268625292</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1193.948381723935</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>904.8300442277731</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.345159625889</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.345159625889</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.345159625889</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.902695549579</v>
+        <v>1110.08818560131</v>
       </c>
       <c r="C5" t="n">
-        <v>1114.902695549579</v>
+        <v>741.1256686608983</v>
       </c>
       <c r="D5" t="n">
-        <v>1114.902695549579</v>
+        <v>741.1256686608983</v>
       </c>
       <c r="E5" t="n">
-        <v>729.1144429513342</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F5" t="n">
-        <v>318.1285381617267</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>306.4641919264196</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1110.08818560131</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>932.4978103101001</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.0370443974455</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>614.1008614695386</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>463.9842220572028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>463.9842220572028</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>463.9842220572028</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>295.9977573654814</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2588592289877</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.986125864409</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269233</v>
+        <v>829.5904750221835</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.478088371215</v>
+        <v>601.6009241241661</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.6855092276852</v>
+        <v>380.808344980636</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670285</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123123</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248784</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F8" t="n">
-        <v>357.7063077352709</v>
+        <v>528.0429005162108</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.1808689801002</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1762.374944995322</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1473.272078120965</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1218.587589915078</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>929.1704198781175</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>701.1808689801002</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.1808689801002</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211832</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072703</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277359</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>98.24448441976887</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921328</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.7555412501341</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>126.0028419604371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756506</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756506</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756586</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756543</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756599</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756566</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708108.4580630466</v>
+        <v>-708108.4580630469</v>
       </c>
       <c r="C6" t="n">
-        <v>406643.3255128729</v>
+        <v>406643.3255128728</v>
       </c>
       <c r="D6" t="n">
-        <v>247222.0555149802</v>
+        <v>247222.0555149808</v>
       </c>
       <c r="E6" t="n">
-        <v>189666.4227717358</v>
+        <v>189631.6848463003</v>
       </c>
       <c r="F6" t="n">
-        <v>515078.8845790916</v>
+        <v>515044.1466536556</v>
       </c>
       <c r="G6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="H6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="I6" t="n">
-        <v>515078.8845790914</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="J6" t="n">
-        <v>347473.7067691086</v>
+        <v>347438.9688436728</v>
       </c>
       <c r="K6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="L6" t="n">
-        <v>466784.9145709001</v>
+        <v>466750.1766454646</v>
       </c>
       <c r="M6" t="n">
-        <v>430023.8566435795</v>
+        <v>429989.1187181437</v>
       </c>
       <c r="N6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536552</v>
       </c>
       <c r="O6" t="n">
-        <v>515078.8845790913</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="P6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536552</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,22 +26790,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>219.8038484059755</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>78.89596781146655</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>110.4682632358708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.39257787736636</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>114.0632339300435</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>9.744643269525881</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>4.704638513323175</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6394762633969</v>
+        <v>290.1909435705127</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.27854221392974</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.501466017062054e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>151.9914336104071</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694772</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>396.9700886943664</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>172.8142548092788</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>284.8319806632537</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>528.9386420741733</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394595</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>20.64972152707382</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>254.8360547723481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
